--- a/biology/Botanique/PotatoEurope/PotatoEurope.xlsx
+++ b/biology/Botanique/PotatoEurope/PotatoEurope.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">PotatoEurope, ou « Journées européennes de la pomme de terre », est une manifestation professionnelle annuelle du secteur européen de la pomme de terre, de la production à la transformation. 
 Elle se déroule chaque année depuis 2005, alternativement, dans l'un des quatre pays organisateurs, Allemagne, Belgique, France et Pays-Bas.
@@ -514,7 +526,9 @@
           <t>Manifestations annuelles depuis 2006</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2006 à Bockerode, Springe-Mittelrode, près de Hanovre (Basse-Saxe) en Allemagne)
 2007 à Kain près de Tournai (province de Hainaut) en Belgique
@@ -526,7 +540,7 @@
 2013 à Emmeloord (Flevoland) aux Pays-Bas, organisateur : DLG Benelux
 2014 à Bockerode, Springe-Mittelrode, près de Hanovre (Basse-Saxe) en Allemagne, organisateur : DLG e.V.  (Deutsche Landwirtschafts Gesellschaft)
 Lors de la manifestation PotatoEurope de 2008 en France, qui a réuni 200 exposants, environ 10 000 visiteurs ont été enregistrés, dont un tiers venant de pays étrangers.
-Prochaines manifestations[1]. :
+Prochaines manifestations. :
 2015 à Kain près de Tournai, organisateur : Fedagrim
 2016 (France), organisateur : Arvalis
 2017 (Pays-Bas), organisateur : DLG Benelux</t>
